--- a/results/pvalue_SIDER_rare_transporter_AUPR+AUROC.xlsx
+++ b/results/pvalue_SIDER_rare_transporter_AUPR+AUROC.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>0.003</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>0.002</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.006</t>
+          <t>0.015</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>0.003</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>9.823</t>
+          <t>6.22</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>9.89</t>
+          <t>7.659</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.274</t>
+          <t>4.048</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>7.938</t>
+          <t>6.244</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -663,27 +663,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>17.634</t>
+          <t>17.617</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>17.241</t>
+          <t>17.219</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>17.094</t>
+          <t>17.079</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>19.781</t>
+          <t>19.759</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>15.959</t>
+          <t>13.628</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
